--- a/Meetings/Doku/Doku - 15.10.12 - EinkaufsApp Übersicht bis dato.xlsx
+++ b/Meetings/Doku/Doku - 15.10.12 - EinkaufsApp Übersicht bis dato.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dang\Desktop\GitHub SWE\EinkaufsApp-Doku\Meetings\Doku\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="8115" windowHeight="7740" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="alle" sheetId="3" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>Datum</t>
   </si>
@@ -199,12 +204,40 @@
   <si>
     <t>Betreff</t>
   </si>
+  <si>
+    <t>Logo, Name für die App</t>
+  </si>
+  <si>
+    <t>Moritz Schaub als Verantwortlicher für Logodesign und Appname, Appname im Slack diskutieren (an alle)</t>
+  </si>
+  <si>
+    <t>Projektstart EinkaufsApp</t>
+  </si>
+  <si>
+    <t>Gruppenaufteilung mit Verteiler
+Einigung auf genutzte Tools (z. B. Dia für Diagramme, Android Studio, Pencil, Zxing, Latex (für Doku))
+Markus als Projektmanager -&gt; alle Infos und E-Mails an ihn (cc)
+an Doku: Checkliste mit allem was doumentiert werden muss und Dokumentation der E-Mails, Gliederung?, Festhalten Fortschritt Design und Dev
+an Dev: Einarbeiten in benötigte Skills (Android XML, Android Java, Webentwicklung/Datenbankadministration (Verantwortlicher Basti), Aufteilung in (Frontend - Middleware- Backend)
+Verantwortlichen für Qualitätssicherung und Funktionslogik für Doku suchen
+Generell: "sinnvoll" programmieren, Konsistenz (z. B. Variablen Deklaration immer oben, Kommentare, Variablen aus mehreren Wörten mit Unterstrichen verbinden, statische Werte vermeiden
+an Designer: Was ist Design?, Tipps (zwei Farben (eine stark, eine schwach), Buttons Name und Symbol (Konsistenz), Logoideen, Aussehen als auch Ablauf
+Marketing beachten
+Mongo DBSchema im Anhang und ER-Modell
+Statustelkos einführen</t>
+  </si>
+  <si>
+    <t>DevKickoff von Basti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nützliche Links Tutorials </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -303,9 +336,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -314,14 +351,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -359,9 +399,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,9 +433,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -427,9 +468,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -602,24 +644,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
     <col min="3" max="3" width="101.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -630,29 +672,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="7">
-        <v>42283.412499999999</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>42279.657638888886</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>42283.412499999999</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>42283.412499999999</v>
       </c>
@@ -660,40 +702,62 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>42283.412499999999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
-      <c r="A5" s="1">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>42284.313888888886</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>42284.405555555553</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>42284.418055555558</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42289.418055555558</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -702,7 +766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -712,7 +776,7 @@
       <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
@@ -720,7 +784,7 @@
     <col min="4" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -731,7 +795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>42283.475694444445</v>
       </c>
@@ -742,7 +806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="135">
+    <row r="3" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>42283.540277777778</v>
       </c>
@@ -753,7 +817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60">
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>42283.627083333333</v>
       </c>
@@ -764,7 +828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>42283.481249999997</v>
       </c>
@@ -775,7 +839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>42284.464583333334</v>
       </c>
@@ -786,7 +850,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>42285.359027777777</v>
       </c>
@@ -804,24 +868,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="110.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -832,7 +896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42283.557638888888</v>
       </c>
@@ -841,6 +905,17 @@
       </c>
       <c r="C2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42289.911805555559</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -849,36 +924,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -895,21 +970,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -920,7 +995,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>42282.416666666664</v>
       </c>
@@ -929,7 +1004,7 @@
       </c>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>42282.479166666664</v>
       </c>
@@ -940,7 +1015,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>42283.416666666664</v>
       </c>
@@ -951,7 +1026,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>42283.541666666664</v>
       </c>
@@ -962,7 +1037,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>42284.520833333336</v>
       </c>
@@ -973,7 +1048,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>42285.416666666664</v>
       </c>
@@ -982,7 +1057,7 @@
       </c>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>42285.5</v>
       </c>
@@ -993,7 +1068,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>42286.375</v>
       </c>
@@ -1002,7 +1077,7 @@
       </c>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>42286.4375</v>
       </c>
@@ -1013,7 +1088,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>42289.375</v>
       </c>
@@ -1024,7 +1099,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>42289.416666666664</v>
       </c>
@@ -1035,15 +1110,37 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
+        <v>42292.416666666664</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>42292.458333333336</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42296.416666666664</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1054,21 +1151,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -1083,16 +1180,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>42283.731944444444</v>
       </c>
